--- a/RealFram_20220710_2018.2.10f1/Data/Excel/Buff.xlsx
+++ b/RealFram_20220710_2018.2.10f1/Data/Excel/Buff.xlsx
@@ -6,16 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="所有buff配置" sheetId="1" r:id="rId1"/>
-    <sheet name="所有buff的测试list" sheetId="2" r:id="rId3"/>
-    <sheet name="所有怪物buff配置" sheetId="3" r:id="rId4"/>
-    <sheet name="怪物buff的测试list" sheetId="4" r:id="rId5"/>
+    <sheet name="所有怪物buff配置" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -44,7 +42,7 @@
     <t>Assets/GameData/...0</t>
   </si>
   <si>
-    <t>1.528131</t>
+    <t>0</t>
   </si>
   <si>
     <t>Bingdong</t>
@@ -62,7 +60,7 @@
     <t>Assets/GameData/...1</t>
   </si>
   <si>
-    <t>2.080783</t>
+    <t>Du</t>
   </si>
   <si>
     <t>ceshi1;ceshiq1</t>
@@ -77,9 +75,6 @@
     <t>Assets/GameData/...2</t>
   </si>
   <si>
-    <t>0.9597449</t>
-  </si>
-  <si>
     <t>Ranshao</t>
   </si>
   <si>
@@ -95,12 +90,6 @@
     <t>Assets/GameData/...3</t>
   </si>
   <si>
-    <t>5.786264</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
     <t>ceshi3;ceshiq3</t>
   </si>
   <si>
@@ -113,57 +102,45 @@
     <t>Assets/GameData/...4</t>
   </si>
   <si>
-    <t>1.407646</t>
+    <t>ceshi4;ceshiq4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>全BUFF5</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...5</t>
+  </si>
+  <si>
+    <t>ceshi5;ceshiq5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>全BUFF6</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...6</t>
+  </si>
+  <si>
+    <t>ceshi6;ceshiq6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>全BUFF7</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...7</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>ceshi4;ceshiq4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>全BUFF5</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...5</t>
-  </si>
-  <si>
-    <t>2.907174</t>
-  </si>
-  <si>
-    <t>ceshi5;ceshiq5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>全BUFF6</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...6</t>
-  </si>
-  <si>
-    <t>8.913951</t>
-  </si>
-  <si>
-    <t>ceshi6;ceshiq6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>全BUFF7</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...7</t>
-  </si>
-  <si>
-    <t>3.471628</t>
-  </si>
-  <si>
     <t>ceshi7;ceshiq7</t>
   </si>
   <si>
@@ -176,9 +153,6 @@
     <t>Assets/GameData/...8</t>
   </si>
   <si>
-    <t>8.191973</t>
-  </si>
-  <si>
     <t>ceshi8;ceshiq8</t>
   </si>
   <si>
@@ -191,55 +165,37 @@
     <t>Assets/GameData/...9</t>
   </si>
   <si>
-    <t>4.752359</t>
-  </si>
-  <si>
     <t>ceshi9;ceshiq9</t>
   </si>
   <si>
-    <t>TestID</t>
-  </si>
-  <si>
-    <t>name0</t>
-  </si>
-  <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5.669851</t>
+    <t>8.660734</t>
   </si>
   <si>
     <t>ceshi0</t>
   </si>
   <si>
-    <t>5.621396</t>
+    <t>6.090492</t>
   </si>
   <si>
     <t>ceshi1</t>
   </si>
   <si>
-    <t>3.866202</t>
+    <t>2.000821</t>
   </si>
   <si>
     <t>ceshi2</t>
   </si>
   <si>
-    <t>2.86637</t>
+    <t>6.762812</t>
   </si>
   <si>
     <t>ceshi3</t>
   </si>
   <si>
-    <t>8.298173</t>
+    <t>6.132854</t>
   </si>
   <si>
     <t>ceshi4</t>
-  </si>
-  <si>
-    <t>name2</t>
   </si>
 </sst>
 </file>
@@ -350,10 +306,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>16</v>
@@ -370,153 +326,153 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -525,145 +481,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -710,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -730,13 +547,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -750,192 +567,53 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/RealFram_20220710_2018.2.10f1/Data/Excel/Buff.xlsx
+++ b/RealFram_20220710_2018.2.10f1/Data/Excel/Buff.xlsx
@@ -32,135 +32,138 @@
     <t>name0</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>name1</t>
   </si>
   <si>
+    <t>name2</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>8</t>
+    <t>预知路径</t>
+  </si>
+  <si>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>Buff类型</t>
+  </si>
+  <si>
+    <t>测试list列</t>
+  </si>
+  <si>
+    <t>全BUFF0</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...0</t>
+  </si>
+  <si>
+    <t>Ranshao</t>
+  </si>
+  <si>
+    <t>ceshi0;ceshiq0</t>
+  </si>
+  <si>
+    <t>全BUFF1</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>ceshi1;ceshiq1</t>
+  </si>
+  <si>
+    <t>全BUFF2</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...2</t>
+  </si>
+  <si>
+    <t>Bingdong</t>
+  </si>
+  <si>
+    <t>ceshi2;ceshiq2</t>
+  </si>
+  <si>
+    <t>全BUFF3</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...3</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>ceshi3;ceshiq3</t>
+  </si>
+  <si>
+    <t>全BUFF4</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...4</t>
+  </si>
+  <si>
+    <t>ceshi4;ceshiq4</t>
+  </si>
+  <si>
+    <t>全BUFF5</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...5</t>
+  </si>
+  <si>
+    <t>ceshi5;ceshiq5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>全BUFF6</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...6</t>
+  </si>
+  <si>
+    <t>ceshi6;ceshiq6</t>
+  </si>
+  <si>
+    <t>全BUFF7</t>
+  </si>
+  <si>
+    <t>Assets/GameData/...7</t>
+  </si>
+  <si>
+    <t>ceshi7;ceshiq7</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>预知路径</t>
-  </si>
-  <si>
-    <t>时长</t>
-  </si>
-  <si>
-    <t>Buff类型</t>
-  </si>
-  <si>
-    <t>测试list列</t>
-  </si>
-  <si>
-    <t>全BUFF0</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Ranshao</t>
-  </si>
-  <si>
-    <t>ceshi0;ceshiq0</t>
-  </si>
-  <si>
-    <t>全BUFF1</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...1</t>
-  </si>
-  <si>
-    <t>Bingdong</t>
-  </si>
-  <si>
-    <t>ceshi1;ceshiq1</t>
-  </si>
-  <si>
-    <t>全BUFF2</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...2</t>
-  </si>
-  <si>
-    <t>Du</t>
-  </si>
-  <si>
-    <t>ceshi2;ceshiq2</t>
-  </si>
-  <si>
-    <t>全BUFF3</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...3</t>
-  </si>
-  <si>
-    <t>ceshi3;ceshiq3</t>
-  </si>
-  <si>
-    <t>全BUFF4</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...4</t>
-  </si>
-  <si>
-    <t>ceshi4;ceshiq4</t>
-  </si>
-  <si>
-    <t>全BUFF5</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...5</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>ceshi5;ceshiq5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>全BUFF6</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...6</t>
-  </si>
-  <si>
-    <t>ceshi6;ceshiq6</t>
-  </si>
-  <si>
-    <t>全BUFF7</t>
-  </si>
-  <si>
-    <t>Assets/GameData/...7</t>
-  </si>
-  <si>
-    <t>ceshi7;ceshiq7</t>
-  </si>
-  <si>
     <t>全BUFF8</t>
   </si>
   <si>
@@ -179,34 +182,31 @@
     <t>ceshi9;ceshiq9</t>
   </si>
   <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>2.300292</t>
+    <t>3.553207</t>
   </si>
   <si>
     <t>ceshi0</t>
   </si>
   <si>
-    <t>8.536345</t>
+    <t>7.653236</t>
   </si>
   <si>
     <t>ceshi1</t>
   </si>
   <si>
-    <t>0.6352848</t>
+    <t>7.646515</t>
   </si>
   <si>
     <t>ceshi2</t>
   </si>
   <si>
-    <t>9.061045</t>
+    <t>5.74684</t>
   </si>
   <si>
     <t>ceshi3</t>
   </si>
   <si>
-    <t>7.048253</t>
+    <t>4.25289</t>
   </si>
   <si>
     <t>ceshi4</t>
@@ -255,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -293,7 +293,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>4</v>
@@ -301,18 +301,18 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
@@ -323,32 +323,32 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -359,7 +359,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>4</v>
@@ -370,7 +370,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>4</v>
@@ -384,7 +384,18 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -416,16 +427,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -433,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>21</v>
@@ -450,7 +461,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
@@ -459,7 +470,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>25</v>
@@ -470,7 +481,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>27</v>
@@ -479,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>29</v>
@@ -490,7 +501,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>31</v>
@@ -499,50 +510,50 @@
         <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>40</v>
@@ -559,10 +570,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>44</v>
@@ -570,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>45</v>
@@ -579,10 +590,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>47</v>
@@ -590,22 +601,22 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -613,19 +624,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +646,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -673,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -684,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -695,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>4</v>
@@ -706,29 +717,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>4</v>
@@ -736,13 +747,46 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -774,16 +818,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -791,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>56</v>
@@ -808,7 +852,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
@@ -820,7 +864,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>58</v>
@@ -828,7 +872,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>27</v>
@@ -848,7 +892,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>31</v>
@@ -860,7 +904,7 @@
         <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>62</v>
@@ -868,19 +912,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>64</v>
